--- a/Plan/Missiles.xlsx
+++ b/Plan/Missiles.xlsx
@@ -317,10 +317,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Aluminum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Titanium</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -357,6 +353,10 @@
   </si>
   <si>
     <t>moreRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aluminum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1151,7 +1151,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1174,10 +1174,10 @@
         <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s">
         <v>59</v>
@@ -1191,7 +1191,7 @@
         <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1211,7 +1211,7 @@
         <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1231,7 +1231,7 @@
         <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1240,7 +1240,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.3">
@@ -1248,10 +1248,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1260,7 +1260,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
